--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/53_Konya_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/53_Konya_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8CBE34-561C-424D-94A8-C2E28BE60A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CCAB47-E0F7-436B-AF8B-DA1EE2C96377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76FE7C42-6AB9-4706-BA09-4A0BB07E2698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{903E3888-B4FD-4095-8DCF-9D7167053150}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{D3B63870-D614-44BA-B4E1-16AF29609B54}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{19E99D38-2AF2-4DD4-BA8C-969F89F8CBD6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{1533CC80-312B-4C53-91F4-7FD0278D0714}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{E8658ADD-402D-4D40-850B-168CA4C42943}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{4CBAF2A6-9681-4680-82CE-57AB0D6D7583}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{4AB14B7C-5A76-4534-BE3B-9CDAC1CBE29A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B50E7CC0-D9CF-4F57-9E9A-67ECF7C27DBB}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{E7B006A2-F0ED-4C85-9D56-4984850AB7B8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8E75D4-2773-4D4A-BCCF-F8C2527486A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1912049A-E8A1-4B5A-9E9D-71D06BFF038F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2479,18 +2479,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C69F24DE-2A69-4749-B782-A9024AD8C482}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BE294F3E-3A2B-4E41-9FED-33E1589059CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BD6B20D9-7524-48D5-B528-CBD9E2B5ACB6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{74A828E9-71EF-4AAF-B796-99D8A1EA4FFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{85238799-97AA-4773-AAB3-EA0E913B19D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8F5FED87-E75F-4EDA-B5FE-67D943A40E44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{28FE32F2-5C30-4F31-B297-1A8135308AF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DF169A33-4953-42D2-9319-04A6FD811A28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9B30B171-C69D-4016-8DE5-21AB4ADA5E6E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9DD63D48-5F01-4E41-A6F5-EB08E5DDF2DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{03503648-35B5-4962-816B-D3B33AC7A765}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC6192E1-6536-4871-84C3-88BEED75093A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{658B1E8C-F471-444F-9F55-C2A382BBABF7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ABEB23CD-C9AD-4A80-95FD-3D87B546B654}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ABDED0EF-4CEB-4551-A70B-DC4CD779C1B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5B0DAF36-B4E8-4CAF-A40C-464E337E1E0A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{30E4E601-8C2F-40CA-8018-4BFEA0248315}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E534C33-45EC-4395-8EFC-F1FFF5500FF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FC0F8B8F-94F7-45C6-B57D-17603DA5F8A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{036C528D-6584-4C16-B2AB-764C6A06EC8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E08E70D-6213-4D57-BC53-D156BF16C618}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF98BF51-7E99-41B5-8873-CFF6B50D5EC1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D58E9710-E087-4978-A49A-1C35FEE6A617}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8C4B8CAF-5ED7-4284-B2CB-3B8A92C0FCA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576FEC52-A626-410E-BA1C-189A57EDDA5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25BDF53-36A3-4CE5-BCDD-82A26D61B43E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3722,18 +3722,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1B2E56B4-6EEE-45D6-ADD0-2FC78D922A19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A61803FE-7EB8-4D2F-A4F9-5ABE5BDD9425}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{870E75B7-0B01-4D7E-815E-D39554216902}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8EAEC3B9-5607-4EAC-95B1-19EB0BE38321}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F09C7AF8-F488-4F2E-839C-AE8F32E34F49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E9E0016E-21EC-4F18-8EBA-D1E02FB2AD51}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2244DA69-B0E4-4A02-B6C9-CC651E1C3D22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{78442D96-A06A-4E02-A75B-6563C40B5EFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{765C8C4C-9EAC-4B1B-86D2-9CBA090069B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{892B7598-7B81-4DD6-9C60-F16D4516E56E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EF1176D1-3504-4BAC-9D9E-4360CC47BC6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{931C82AB-B6E0-46D7-943A-63EF81E15C1A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7F9D5D48-0142-4B07-95C6-477035B559BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A875050E-3DB3-4553-BDEC-F09E17FBC775}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81E92703-2B52-46C8-BE2C-CD53A7833D05}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D4AC0FA2-9CD6-43AE-B3DB-6F69BD332DF0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BF6FEA6B-A787-4D03-AFEE-5B890E6B48FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1E682E28-003B-4AD1-A125-61D92FC0144A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F68C363A-464F-402E-8B27-1278F0A49E6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0BBAD705-4755-4BF2-B9E6-72172F047189}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DB378DC-CFFD-4E26-9274-627A6A1F32AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{81F40152-CFF9-4E0B-8960-563422D5C349}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{48B32B26-EE0F-430E-A282-34D1B68FBACC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{53EDB7D4-D635-4428-8D48-3D6CE1A0A80B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3746,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7B3FFF-17A0-4E52-BE57-4EF7920B45EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3590D39-E102-4CE2-B3DC-E9F42814FC14}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4953,18 +4953,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{93BAE29E-12AF-4B01-ABC1-53B61112B21C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{39213A0F-834C-44BD-8D04-2BDCEE375211}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{35152214-8F1A-4BCD-A8C9-C95BD50B2ABF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EC4491B0-3BD3-48BD-AB0C-0E801A3887C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FA80615D-70C3-471D-95C9-BBDE3FC86302}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{09C054A1-28ED-4372-9162-507899268190}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0F580C16-842B-4626-844B-F155AEBFAB52}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{04742DF3-56D0-497E-865B-83F0D2DA4A98}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BE92672E-82C8-4F26-A669-E4E98546B5F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{58E21588-CF12-4305-B351-7DF83AEF09DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2C4B35A0-A6F7-4C62-8BE0-89D49F795CC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{545434F4-6996-40E4-A2C6-5B2B0CFEAA89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{64A0AFE0-4491-4388-AB07-019780DB9BC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6BEC0349-5840-439F-A768-FFC2E8C99322}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7CC0333C-4205-4B97-9F18-1F1CD7D9AC4A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DAB5CC16-EDE8-4808-9662-D67C91BD5523}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3DC822F8-08D7-4B36-AFA4-578D6882C59B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE16ECB4-7099-4473-B6AC-A15E6ED36856}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{33E357A7-4463-4FD4-9F96-363465D488FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F7CC0EC2-283A-4550-83A1-E7922AFF3704}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D04989F8-DF6C-401E-B568-6172639B26DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{149F8C67-2B64-465E-8AE1-08FE9CF181FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AE232D38-CCE7-4D50-B996-DDACCCB54426}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0D6AF510-DE84-43FD-A3FE-7521BB1CEEC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4977,7 +4977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48655AA9-E3FA-4987-A529-3DBA30EB625D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80895A06-97EC-4047-BBFC-4E15082E24C6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6180,18 +6180,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3390F13-6816-409D-A617-38799CCFC31A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5203729A-E3DB-4802-A4EF-035A38BE52F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4215EDB5-EB0E-489B-9616-DA5E07786E73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{55C15014-0064-461A-8E2F-5DC10387C87E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1FBE89D9-454C-432A-AFD8-C8D228EFB8CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B9FC9D4F-BD45-422E-9620-E0B261114D19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{19639E38-9D3D-4F9A-B152-13036FCD2181}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD7FA488-0F8D-4D14-8592-A4663BEC3FDE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE02BCEE-740A-4208-B1D6-1B02A7359619}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8727EB3C-97A3-401B-8835-AC65DA7FE077}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9C29E895-A105-4D4A-A7C9-EE5162FAFB9F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3B8E8DD6-8B70-40C1-A463-AE7CF8C52F1A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BAEEA2AB-9F36-4574-8F02-B81BDBB31E16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DEC28A7C-F390-4476-A5DA-6A0D251526D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{540BD0F3-DD7B-439E-8487-6F8D61937C6A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{04817C4F-BB19-4601-9B4C-F5B485D3A201}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A40C7C6D-9852-415A-AE6C-63EC2AA4AD93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2360FDDE-0D70-48AB-BAA3-CAC8ADDF97EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DE63D2D6-2EAD-416F-B3FB-7A739DFA9A1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D769F3F-2B5E-4FAA-A83A-C1C350BDFD15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C94A3B73-996C-4DB8-B822-9CBE50252C41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{592AB876-C62A-4730-9A15-9C740035A1A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9237C989-0256-46DE-A7F4-FB1FA7C7BADA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{49C41FCA-32EC-4028-95CF-B2B333FD1039}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6204,7 +6204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4224B18B-ED4D-4E8B-A915-C19547A64E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB0C9A9-0FA4-4039-8F0D-FA5B6AC6DFFF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7445,18 +7445,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{50C018C7-D0C7-49BF-BDA2-C9B2986D5AA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{28CBC8A7-9755-491A-B045-5968DAF95853}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E803CC47-4C76-4CBB-BCA5-71B8092FDE47}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DE7D375E-8F51-44E8-BA93-62B7835875AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1BE51F9F-5808-47B3-96DE-3B347D30E638}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2A17674D-BC4E-4F36-8B48-00F49BB24FB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{81397727-6FF1-49EF-AF62-CEE9641476EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DCD4FCF1-5D31-4172-9FC9-84A479A54DD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FDA6F99E-0D0D-4AAD-A756-8BA1078CC8F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4AF28E33-140A-4255-8ECB-C7C9659B1716}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5291B789-F1EE-468C-A58A-9A5182E40887}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CEEB7E2A-F924-48DF-B25C-39576F190B9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DBF97E9A-2426-4411-938A-097757CC479F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09B70CD2-B312-43DC-9D52-59054B9E90E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F0A55E1C-CCE4-4982-800B-9A5F1FCC2EC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BDE143A8-A29C-4E54-B87D-5EBD12474F3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{88D214CA-8B7B-4E9B-8989-12109439945A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{86E337C8-9B17-40AE-884A-00013CEA8ACA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{836863E9-6D10-428D-B3C9-178DD085789E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F3C09133-5860-4BE7-9ADC-CF9606F9E87E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{491C2E66-1C01-472F-913B-F1F1C7DA33DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{360C7DBA-E51B-4D4F-AF86-F9B08498BBEF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3A3FB75E-46C4-4301-92B0-3C0DEB554640}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67FA0064-836B-41AA-B6E5-C4A8BE6AE1FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7469,7 +7469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A7DC97-2A4C-4D45-892C-894EBD5D67B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21094ECE-D1B3-4801-8A8B-C6714E48DC29}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8710,18 +8710,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{804AAE1D-0BED-404E-9C6A-AACC612AA559}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BC2F129A-C53A-4119-B6B0-DF88ECD9754B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{581202A3-8E58-41AA-A1E4-A7CFDD7738EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8F86731D-66C8-448B-B9DF-8D17BC171105}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FEE42FD5-197D-459D-BF96-AD70D1C298D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9FB78875-B21C-49FF-AD00-86B5EB1F366B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{55A591FC-992B-426F-8A37-40E15816EE9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A50CFA0D-E319-4B08-96F8-9E090EE8D1D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{437520A3-FDA7-4CD4-9EE8-B7AF93373C7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B1D51D30-535A-4C0A-81A5-EB1093ED6DA7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B84F51D4-47F0-4E63-BE67-010402B3F076}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{04FAEA67-AC8A-447A-9961-93EFCD3924BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{92115A43-DF09-44DC-BE3D-BFAD354B0103}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D42C17ED-81A5-424B-8758-9C3FCFF0AFF6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8E86743B-6E28-49A7-90EB-86A79B589D2F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3DD92F3B-706C-4485-A69F-CFA31737C238}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{584AAF89-A01E-4E54-B922-603C659906CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D68C3239-007F-4751-AC7D-9B0F93FC7359}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AB2600C1-447C-4F7F-A6D2-80E25E9C0552}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51B169E2-3D90-42BD-A1EB-B7CEC5FA96CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{401655D5-A541-477E-875C-F12FA8A171E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{056AB8EE-B238-4DB0-88AE-F40C1872C1E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3C05E71A-8584-4DB9-933E-EAB90ECCB232}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{83C1C497-3924-4174-8A45-3EF905ABC190}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8734,7 +8734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689112C0-B92A-4F9E-A18F-F2552DD43447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B1F4EA-9051-458E-B484-6099E2234A68}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9975,18 +9975,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6B4E5A39-43F7-478E-BA2C-E19BA6DEAA9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4418F05-2955-47B6-9CB7-9F9A3D152A05}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D7364FA0-C2BE-4E8A-97B1-E2498043346C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3D5094C4-B326-474F-A1E3-78F4CBF16FDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{650D8006-0EF2-4C5B-9265-FCFC2F8E2749}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{86BB1F7C-32E7-4038-AC14-0BBF20478C3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F162A7BC-FEEB-4E9E-9B2E-BF89016BE892}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FB3E729F-16CF-4CF8-B70F-6325A3D33956}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9A005584-7DE1-4363-8AED-D7F4309B389A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F3B0BF1-7E83-453A-8DD5-05EAC1CC5A75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8112205B-ADD7-4CFE-8A50-8054FEF0DC3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A9E60709-A403-4235-B02B-5CBDA904F754}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8BFDA870-72C3-49DC-9087-A7B879286F9C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E5B8A04E-A5A7-4CFE-AD03-1CD84C4EA0FE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A491595D-A05E-471A-8925-AC05C8403211}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7551FD4D-C3A7-4C90-8E93-D84F6964A198}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4174AEA6-D12A-403C-AF4F-11CB600DAC25}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C3AE95FE-751E-4E4B-A23A-E4089976A867}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FFCD767D-85FD-4C03-B018-2C82261195B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A368E381-3732-4C50-8FBC-E9E7E3AFBA83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{448FCB67-DA4A-413E-AE5B-B18573960446}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6FF0B420-B46B-4CDD-ACD9-5CFE81A4564C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B769236-91AD-4BA0-8D94-3490F7208EB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5CFC86D-BE38-4A47-A45E-64628DBE6E15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9999,7 +9999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4432BE3-971F-4C14-9A76-76FCE20DE692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B711BC3-59B7-4BEA-A7BC-820D547C167D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11238,18 +11238,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{12D753C4-6E1A-4AF9-BBA3-D3EF2CDE6C8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{196016B4-45D4-4D54-9E82-0D364EBD2746}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7E61545-3DE1-4608-BA7A-6ADE119584F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B678A9D-F633-453F-B1EA-6462502C6F7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{16843A55-B697-49E3-B0E4-7A911DFC1B52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{122E9FB1-7696-41A3-A869-A7334B87AC03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{220E8347-C401-4E91-ABB4-300E7854B3FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{04DB6BF3-A752-4FF7-911C-85FD4B80F73D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D2FD7ED4-36FE-480A-BFCB-2049086808CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{555863AA-C821-4B4F-AAFF-78A852BF8226}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{60F41FBB-F50D-4E30-87E1-AA2F963C0FEC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{398D4114-400A-4149-A2E4-395BC0BE8D03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53FF0AD5-446C-46EE-A55F-E4CC96DD2FDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9A8370DD-09B4-4333-B79F-6C2C3AB83942}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7E14CEFE-DE4E-496D-A14E-1FF7625E3828}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0BCF51A0-9E60-446A-983C-3DEA95B65047}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D25D41D4-5EE6-4589-B925-FAA784710BD6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3140B7F9-F80D-48C3-A93A-265D23B2BFD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{748205F9-2F72-41C3-8BED-69151185DC9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{52EBD3D8-A2C9-45A3-AF89-A5374CA1C6E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{43E5CCAE-85EA-4369-AEAB-83CF37FFD430}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D7AA4400-DF52-424C-A97C-E85785D2324C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FE896520-E3A7-442F-8799-EC2DBBAC0ADE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C416A3BE-C134-4615-AF7A-80CFC4E05325}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11262,7 +11262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014C6D8-B02D-4DE4-94B9-31A0650BB681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71C1D25-30CE-4DE6-9E05-6B4FF67F96E1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12501,18 +12501,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1C4AF974-DEA6-4434-BFF3-725C8418CCD8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F2E305B2-1B0B-4722-8AE9-819493C74934}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{01733444-2617-4970-92FD-03CB4CB5C06B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{52192DDB-63CF-4AD4-9362-4B3DDB3B6C11}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C32467F-5C85-47C3-800E-74D72586C6CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BB9BC406-390F-4269-8383-28DEEEBD370D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B36578C8-7150-4C5D-9740-9133DA9BA3EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{488B9247-C38E-48BB-AD39-A64267CA1B6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4BD6FD5F-208E-49E7-BE54-9F4EF652D19C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{325DD833-2431-45BB-86A6-C4517038B6B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C45CC594-E43C-43B2-AEFE-3498F9AD821A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0476805D-A826-4DCD-AB89-83E8C80D2AF5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BF333989-2D61-4BB0-AED6-C6B6BBCCCD44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7373F2D9-ADC4-43DF-8B0C-33903CDDE548}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48C5B6DA-53C8-4337-8688-FA3868E1F00F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1F8A5F25-E302-4E87-AEA4-9473D115247F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7871F174-02A6-47D7-BCC6-0ABEDE9B4700}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13E8DC80-AAA2-4CD0-BF6B-10069D981282}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3DFDD2E0-E521-4093-9BB2-C058B19B74D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E720FDCC-1777-41B6-A52F-AA8B3C81CFD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7932B7D2-A2BB-4B00-84F7-B94721708CD1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4A3EA34F-3B6B-416F-8D65-B2EA836E6B31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30E568A8-0A06-4C79-9F6B-2A0950469B6F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{795B4A9D-76F9-497B-AA4D-B4DF2582CA80}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12525,7 +12525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15834C20-AB41-41D6-9C16-A5804F3C1DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE37D5-9B2C-4E85-9951-18EECAE2C839}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13760,18 +13760,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D8238EB6-F1E1-4A4C-9D82-DFCC2EFA99E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{33379121-A799-4E68-ABD3-828414A5CB73}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{79D3954F-1484-42E0-9E7E-9B364F0C9881}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72FBD38F-71D6-4518-93E4-8625185E4BF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{114DF50F-D23B-4D19-9BDD-5B2809929B7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5AE97607-A2BF-4AA3-A6BA-302F6F56DBDF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E0FFC342-C746-4792-A745-CF4740588727}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{12C468E9-CB1E-46FD-A830-38701B70FC4C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2E474D8E-1D9C-4CD4-A099-6FFA18F1308C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3E95779A-0EF2-402F-A34C-5DA69325F7DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{56CBB76C-2E61-4ABE-AA72-C92CCD82B270}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A84CC4F2-2990-45B5-9477-6263DF9B2105}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4A203631-265F-4A3C-B56D-1F59259FA79E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{58FA6247-E175-481E-A1E4-0E7009E157A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9CD66355-64A1-4A56-B1B6-B5E2365C1EF0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7DC3CDD3-897F-4ABC-9ACD-92A517674815}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{35F95BAD-8DE0-4DF0-904D-3DE44B6732C5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8E69D10-DB98-49DC-8EC1-C1B3E136BCB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3ED4B020-0B72-4C14-AE14-553C577C5B67}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3D799A83-5795-45B1-9F4E-60B7F7CCB384}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C7072C66-38CE-4987-ADD9-32AC12A13C61}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{523E9F6F-0C60-4DB2-9B13-DABA414A2211}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{10B163BE-18B3-4D22-A155-A2628BB11BFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{87C4F576-814B-4CD8-BAE0-C2BFB3B5CBFA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13784,7 +13784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BA08D-5BC8-4771-BF10-075759A036B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAFE4D-6939-4FBB-A319-9D8AA353D7F3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15019,18 +15019,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{54BB811D-BF87-4AFB-9A4B-33D6D550A1B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{57EDF11C-812F-435C-83B3-F6127B852B31}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{80BBD197-1566-4CBC-988C-D89691DBB191}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90A6D94F-B18D-4EAA-80BA-0B771FDCA490}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CC0620EA-5072-4590-A250-F3C23F4A831E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{553EAEB0-8F46-496F-9BD0-846B73CCB148}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{21C1AA3C-B535-4402-8769-5D66840031E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4DF4E2B4-F70B-4BFF-9FA5-0BB17DD788DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8FD04518-C69B-49C3-81FC-CDF1BB85E59A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6F8B84B8-CE54-4507-886E-164F067D5AB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8D795A21-98DB-4747-A57B-69E2732CE791}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CBA74AA4-9094-4E55-A4F2-C200A2C19D74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{136E0958-2BFF-4642-A77D-DEF10ADF810B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{93B5DFED-D2FA-464D-A1CB-7BF475B3F609}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{803F6C04-DE7D-4B12-9111-F8300EC47FE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79ED51A2-79DC-4897-9664-22312B70BDC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ABE8E941-4777-492E-B412-EDFE40C93628}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E1D2904-7362-4677-A6B5-780ACB80628A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{462BEC5B-E2BA-4F8E-9575-FCBE39EB8230}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90264F15-2944-4FFC-94C8-9DD4CD68BC96}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22BA3A1F-B934-4E73-B910-9CFD528D344A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D75031B-CCA0-46F3-8C08-22D64D93FC32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{07FA7192-01EA-483E-B390-C9472253D38A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BF356A78-BCEA-4224-835D-B24B04214A77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15043,7 +15043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433DDA5F-CE30-4B43-807A-103FCB501499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA938B6-4800-4B97-90B3-C1F946F8BF8C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16278,18 +16278,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AB1AEEA1-57C8-4CB6-B562-8D01B6ACFE31}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{794EDFD7-016D-4381-ADAC-1CEE47C0D493}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E0B4FF55-6A3E-4EB0-9657-4C1572718E2C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{133061AB-6D81-4F01-8B2B-CB0E8CF60BA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BE974A2B-3563-4494-B332-2FD9A00BAB81}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5E7A3536-2C24-41DF-AF58-71AAE1710F8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3952C843-3470-4285-8928-7A310D8CE515}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A99427ED-9882-4480-961D-B9645DB72840}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C945916E-254B-469B-9A77-2C4B179347E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D1394837-99C9-466C-8F72-801A003E43F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2F50F05F-9769-4766-869D-ED04C88369BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1E3E841F-66E7-4E3A-ADF1-8262C79F57D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC9C7D5F-8901-4038-8AFE-EF4B526DC07B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2633EE73-298C-4E8D-ABFA-5A10C47D42C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{817673B7-C2D4-476D-A63F-D8E625DFA1E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{30055463-CA64-4E58-BF62-0DFE75BA307D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CC5E3594-36EA-486E-B213-472B1C5F2830}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9F78AF83-BE27-40E5-9FBF-F496C84CA7B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B95FC5B1-48E4-43FE-8274-80A17755BF58}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B16ADC11-9EF5-4021-BD37-DFE1E05216FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5B6CEF0E-E9D9-41F4-956D-758B1F868E61}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F13F3B2A-3F0E-4D26-B5AB-5392E289770D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{24F21F9E-729C-4B36-B97C-C3AD8B231DEA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2C8E6622-0D22-4AC2-8A2B-ABABFD5E641D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
